--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3752,28 +3752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6850.447485768537</v>
+        <v>7008.904952891784</v>
       </c>
       <c r="AB2" t="n">
-        <v>9373.084470442476</v>
+        <v>9589.892967610587</v>
       </c>
       <c r="AC2" t="n">
-        <v>8478.530443789768</v>
+        <v>8674.647042280783</v>
       </c>
       <c r="AD2" t="n">
-        <v>6850447.485768537</v>
+        <v>7008904.952891784</v>
       </c>
       <c r="AE2" t="n">
-        <v>9373084.470442476</v>
+        <v>9589892.967610586</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.115475201026106e-07</v>
+        <v>1.13152302415479e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.846875</v>
       </c>
       <c r="AH2" t="n">
-        <v>8478530.443789769</v>
+        <v>8674647.042280784</v>
       </c>
     </row>
     <row r="3">
@@ -3858,28 +3858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2288.62533074187</v>
+        <v>2361.799023932489</v>
       </c>
       <c r="AB3" t="n">
-        <v>3131.398144544903</v>
+        <v>3231.517619763824</v>
       </c>
       <c r="AC3" t="n">
-        <v>2832.541900574318</v>
+        <v>2923.106113596908</v>
       </c>
       <c r="AD3" t="n">
-        <v>2288625.33074187</v>
+        <v>2361799.02393249</v>
       </c>
       <c r="AE3" t="n">
-        <v>3131398.144544903</v>
+        <v>3231517.619763824</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.151465786300073e-06</v>
+        <v>2.130513175012823e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.19791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2832541.900574318</v>
+        <v>2923106.113596907</v>
       </c>
     </row>
     <row r="4">
@@ -3964,28 +3964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1750.490019634377</v>
+        <v>1823.493031115854</v>
       </c>
       <c r="AB4" t="n">
-        <v>2395.097671033071</v>
+        <v>2494.983612007592</v>
       </c>
       <c r="AC4" t="n">
-        <v>2166.512910850369</v>
+        <v>2256.865877809079</v>
       </c>
       <c r="AD4" t="n">
-        <v>1750490.019634377</v>
+        <v>1823493.031115854</v>
       </c>
       <c r="AE4" t="n">
-        <v>2395097.671033071</v>
+        <v>2494983.612007592</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.349430954424892e-06</v>
+        <v>2.496800566181251e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.26145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2166512.910850369</v>
+        <v>2256865.877809079</v>
       </c>
     </row>
     <row r="5">
@@ -4070,28 +4070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1529.489529752576</v>
+        <v>1590.382281474946</v>
       </c>
       <c r="AB5" t="n">
-        <v>2092.715050923288</v>
+        <v>2176.031200228445</v>
       </c>
       <c r="AC5" t="n">
-        <v>1892.98926360719</v>
+        <v>1968.353836557612</v>
       </c>
       <c r="AD5" t="n">
-        <v>1529489.529752576</v>
+        <v>1590382.281474947</v>
       </c>
       <c r="AE5" t="n">
-        <v>2092715.050923288</v>
+        <v>2176031.200228444</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.455488933221313e-06</v>
+        <v>2.69303559446382e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.440625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1892989.26360719</v>
+        <v>1968353.836557612</v>
       </c>
     </row>
     <row r="6">
@@ -4176,28 +4176,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1398.275665390482</v>
+        <v>1471.278587363408</v>
       </c>
       <c r="AB6" t="n">
-        <v>1913.182452955925</v>
+        <v>2013.068271460897</v>
       </c>
       <c r="AC6" t="n">
-        <v>1730.591004814248</v>
+        <v>1820.943860991732</v>
       </c>
       <c r="AD6" t="n">
-        <v>1398275.665390482</v>
+        <v>1471278.587363408</v>
       </c>
       <c r="AE6" t="n">
-        <v>1913182.452955925</v>
+        <v>2013068.271460897</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.521866347736267e-06</v>
+        <v>2.815851189881384e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.985416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1730591.004814249</v>
+        <v>1820943.860991732</v>
       </c>
     </row>
     <row r="7">
@@ -4282,28 +4282,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1317.608212796817</v>
+        <v>1378.586215865209</v>
       </c>
       <c r="AB7" t="n">
-        <v>1802.809685520432</v>
+        <v>1886.242479478238</v>
       </c>
       <c r="AC7" t="n">
-        <v>1630.752059393646</v>
+        <v>1706.222144594781</v>
       </c>
       <c r="AD7" t="n">
-        <v>1317608.212796818</v>
+        <v>1378586.215865209</v>
       </c>
       <c r="AE7" t="n">
-        <v>1802809.685520432</v>
+        <v>1886242.479478237</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.566652866980424e-06</v>
+        <v>2.898717976240049e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>1630752.059393646</v>
+        <v>1706222.144594781</v>
       </c>
     </row>
     <row r="8">
@@ -4388,28 +4388,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1254.319794073988</v>
+        <v>1315.127204941786</v>
       </c>
       <c r="AB8" t="n">
-        <v>1716.215678935878</v>
+        <v>1799.415061118837</v>
       </c>
       <c r="AC8" t="n">
-        <v>1552.422463262071</v>
+        <v>1627.681413180554</v>
       </c>
       <c r="AD8" t="n">
-        <v>1254319.794073988</v>
+        <v>1315127.204941786</v>
       </c>
       <c r="AE8" t="n">
-        <v>1716215.678935878</v>
+        <v>1799415.061118837</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.599914516451653e-06</v>
+        <v>2.960260736141597e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.498958333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1552422.463262071</v>
+        <v>1627681.413180554</v>
       </c>
     </row>
     <row r="9">
@@ -4494,28 +4494,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1200.906034643363</v>
+        <v>1261.713445511161</v>
       </c>
       <c r="AB9" t="n">
-        <v>1643.13261683414</v>
+        <v>1726.331999017099</v>
       </c>
       <c r="AC9" t="n">
-        <v>1486.314346034601</v>
+        <v>1561.573295953084</v>
       </c>
       <c r="AD9" t="n">
-        <v>1200906.034643363</v>
+        <v>1261713.445511161</v>
       </c>
       <c r="AE9" t="n">
-        <v>1643132.61683414</v>
+        <v>1726331.999017099</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.625881944547613e-06</v>
+        <v>3.008307276766491e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.346875000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>1486314.346034601</v>
+        <v>1561573.295953084</v>
       </c>
     </row>
     <row r="10">
@@ -4600,28 +4600,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1154.19276350218</v>
+        <v>1202.975255465444</v>
       </c>
       <c r="AB10" t="n">
-        <v>1579.217458414698</v>
+        <v>1645.963816050491</v>
       </c>
       <c r="AC10" t="n">
-        <v>1428.499160629222</v>
+        <v>1488.875339571356</v>
       </c>
       <c r="AD10" t="n">
-        <v>1154192.76350218</v>
+        <v>1202975.255465443</v>
       </c>
       <c r="AE10" t="n">
-        <v>1579217.458414698</v>
+        <v>1645963.816050491</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.647181070963401e-06</v>
+        <v>3.047716237054324e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.226041666666665</v>
       </c>
       <c r="AH10" t="n">
-        <v>1428499.160629222</v>
+        <v>1488875.339571356</v>
       </c>
     </row>
     <row r="11">
@@ -4706,28 +4706,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1115.433320431184</v>
+        <v>1164.215812394448</v>
       </c>
       <c r="AB11" t="n">
-        <v>1526.185078459016</v>
+        <v>1592.931436094808</v>
       </c>
       <c r="AC11" t="n">
-        <v>1380.528116585097</v>
+        <v>1440.904295527231</v>
       </c>
       <c r="AD11" t="n">
-        <v>1115433.320431184</v>
+        <v>1164215.812394448</v>
       </c>
       <c r="AE11" t="n">
-        <v>1526185.078459016</v>
+        <v>1592931.436094808</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.660602438293897e-06</v>
+        <v>3.072549280523371e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.151041666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1380528.116585097</v>
+        <v>1440904.295527231</v>
       </c>
     </row>
     <row r="12">
@@ -4812,28 +4812,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1106.544660610969</v>
+        <v>1155.327152574232</v>
       </c>
       <c r="AB12" t="n">
-        <v>1514.023221953001</v>
+        <v>1580.769579588794</v>
       </c>
       <c r="AC12" t="n">
-        <v>1369.526970594744</v>
+        <v>1429.903149536878</v>
       </c>
       <c r="AD12" t="n">
-        <v>1106544.660610968</v>
+        <v>1155327.152574232</v>
       </c>
       <c r="AE12" t="n">
-        <v>1514023.221953001</v>
+        <v>1580769.579588794</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.664395433409037e-06</v>
+        <v>3.079567314547231e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.130208333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1369526.970594744</v>
+        <v>1429903.149536878</v>
       </c>
     </row>
     <row r="13">
@@ -4918,28 +4918,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1110.679167648592</v>
+        <v>1159.461659611856</v>
       </c>
       <c r="AB13" t="n">
-        <v>1519.680236883455</v>
+        <v>1586.426594519248</v>
       </c>
       <c r="AC13" t="n">
-        <v>1374.644087959905</v>
+        <v>1435.02026690204</v>
       </c>
       <c r="AD13" t="n">
-        <v>1110679.167648592</v>
+        <v>1159461.659611856</v>
       </c>
       <c r="AE13" t="n">
-        <v>1519680.236883455</v>
+        <v>1586426.594519248</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.664395433409037e-06</v>
+        <v>3.079567314547231e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.130208333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>1374644.087959905</v>
+        <v>1435020.26690204</v>
       </c>
     </row>
   </sheetData>
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4125.087390323963</v>
+        <v>4242.724511651135</v>
       </c>
       <c r="AB2" t="n">
-        <v>5644.126553453301</v>
+        <v>5805.082852636664</v>
       </c>
       <c r="AC2" t="n">
-        <v>5105.459036772875</v>
+        <v>5251.053892665755</v>
       </c>
       <c r="AD2" t="n">
-        <v>4125087.390323963</v>
+        <v>4242724.511651135</v>
       </c>
       <c r="AE2" t="n">
-        <v>5644126.553453301</v>
+        <v>5805082.852636664</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.039263315958624e-07</v>
+        <v>1.532407659900788e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.553125</v>
       </c>
       <c r="AH2" t="n">
-        <v>5105459.036772875</v>
+        <v>5251053.892665756</v>
       </c>
     </row>
     <row r="3">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1786.751098216117</v>
+        <v>1857.2481196664</v>
       </c>
       <c r="AB3" t="n">
-        <v>2444.711678474493</v>
+        <v>2541.168813331855</v>
       </c>
       <c r="AC3" t="n">
-        <v>2211.391827055277</v>
+        <v>2298.643228340292</v>
       </c>
       <c r="AD3" t="n">
-        <v>1786751.098216118</v>
+        <v>1857248.1196664</v>
       </c>
       <c r="AE3" t="n">
-        <v>2444711.678474492</v>
+        <v>2541168.813331855</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.301343487394617e-06</v>
+        <v>2.480561526435985e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.08020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2211391.827055277</v>
+        <v>2298643.228340292</v>
       </c>
     </row>
     <row r="4">
@@ -5427,28 +5427,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1413.596576983027</v>
+        <v>1484.093508924759</v>
       </c>
       <c r="AB4" t="n">
-        <v>1934.145200107761</v>
+        <v>2030.602212495575</v>
       </c>
       <c r="AC4" t="n">
-        <v>1749.553096799313</v>
+        <v>1836.804387303102</v>
       </c>
       <c r="AD4" t="n">
-        <v>1413596.576983027</v>
+        <v>1484093.508924759</v>
       </c>
       <c r="AE4" t="n">
-        <v>1934145.20010776</v>
+        <v>2030602.212495575</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.481536474052296e-06</v>
+        <v>2.82403716862137e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.61145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1749553.096799313</v>
+        <v>1836804.387303102</v>
       </c>
     </row>
     <row r="5">
@@ -5533,28 +5533,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1247.675186689072</v>
+        <v>1318.086777776233</v>
       </c>
       <c r="AB5" t="n">
-        <v>1707.124233972447</v>
+        <v>1803.464479238064</v>
       </c>
       <c r="AC5" t="n">
-        <v>1544.198693046027</v>
+        <v>1631.344360517876</v>
       </c>
       <c r="AD5" t="n">
-        <v>1247675.186689072</v>
+        <v>1318086.777776232</v>
       </c>
       <c r="AE5" t="n">
-        <v>1707124.233972447</v>
+        <v>1803464.479238064</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.575858598559038e-06</v>
+        <v>3.003829694890938e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.976041666666665</v>
       </c>
       <c r="AH5" t="n">
-        <v>1544198.693046027</v>
+        <v>1631344.360517876</v>
       </c>
     </row>
     <row r="6">
@@ -5639,28 +5639,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1151.408097189626</v>
+        <v>1210.226657853212</v>
       </c>
       <c r="AB6" t="n">
-        <v>1575.407355115055</v>
+        <v>1655.885504706731</v>
       </c>
       <c r="AC6" t="n">
-        <v>1425.052688240983</v>
+        <v>1497.850116187422</v>
       </c>
       <c r="AD6" t="n">
-        <v>1151408.097189626</v>
+        <v>1210226.657853212</v>
       </c>
       <c r="AE6" t="n">
-        <v>1575407.355115055</v>
+        <v>1655885.504706731</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.635168350448877e-06</v>
+        <v>3.116883235409243e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.613541666666668</v>
       </c>
       <c r="AH6" t="n">
-        <v>1425052.688240983</v>
+        <v>1497850.116187422</v>
       </c>
     </row>
     <row r="7">
@@ -5745,28 +5745,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1075.922593850092</v>
+        <v>1134.570562313085</v>
       </c>
       <c r="AB7" t="n">
-        <v>1472.124759260529</v>
+        <v>1552.369497077359</v>
       </c>
       <c r="AC7" t="n">
-        <v>1331.62723837678</v>
+        <v>1404.213531040568</v>
       </c>
       <c r="AD7" t="n">
-        <v>1075922.593850092</v>
+        <v>1134570.562313085</v>
       </c>
       <c r="AE7" t="n">
-        <v>1472124.759260529</v>
+        <v>1552369.497077359</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.676217339034212e-06</v>
+        <v>3.19512894284176e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.379166666666668</v>
       </c>
       <c r="AH7" t="n">
-        <v>1331627.23837678</v>
+        <v>1404213.531040568</v>
       </c>
     </row>
     <row r="8">
@@ -5851,28 +5851,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1018.978768796072</v>
+        <v>1066.033706835492</v>
       </c>
       <c r="AB8" t="n">
-        <v>1394.211705637359</v>
+        <v>1458.594347780249</v>
       </c>
       <c r="AC8" t="n">
-        <v>1261.150097239747</v>
+        <v>1319.388150378125</v>
       </c>
       <c r="AD8" t="n">
-        <v>1018978.768796072</v>
+        <v>1066033.706835492</v>
       </c>
       <c r="AE8" t="n">
-        <v>1394211.705637359</v>
+        <v>1458594.347780249</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.70458943408584e-06</v>
+        <v>3.249210534743645e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.222916666666668</v>
       </c>
       <c r="AH8" t="n">
-        <v>1261150.097239747</v>
+        <v>1319388.150378125</v>
       </c>
     </row>
     <row r="9">
@@ -5957,28 +5957,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1008.019471621893</v>
+        <v>1055.074409661313</v>
       </c>
       <c r="AB9" t="n">
-        <v>1379.216711753579</v>
+        <v>1443.599353896469</v>
       </c>
       <c r="AC9" t="n">
-        <v>1247.58620452663</v>
+        <v>1305.824257665008</v>
       </c>
       <c r="AD9" t="n">
-        <v>1008019.471621893</v>
+        <v>1055074.409661313</v>
       </c>
       <c r="AE9" t="n">
-        <v>1379216.711753579</v>
+        <v>1443599.353896469</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.711078796251903e-06</v>
+        <v>3.261580260550992e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.1875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1247586.20452663</v>
+        <v>1305824.257665008</v>
       </c>
     </row>
     <row r="10">
@@ -6063,28 +6063,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1012.439758933119</v>
+        <v>1059.494696972539</v>
       </c>
       <c r="AB10" t="n">
-        <v>1385.264743862112</v>
+        <v>1449.647386005002</v>
       </c>
       <c r="AC10" t="n">
-        <v>1253.05702093919</v>
+        <v>1311.295074077569</v>
       </c>
       <c r="AD10" t="n">
-        <v>1012439.758933119</v>
+        <v>1059494.696972539</v>
       </c>
       <c r="AE10" t="n">
-        <v>1385264.743862113</v>
+        <v>1449647.386005002</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.710927880852693e-06</v>
+        <v>3.26129259250896e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.188541666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1253057.02093919</v>
+        <v>1311295.074077569</v>
       </c>
     </row>
   </sheetData>
@@ -6360,28 +6360,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1306.349198693953</v>
+        <v>1369.044602295077</v>
       </c>
       <c r="AB2" t="n">
-        <v>1787.404605712246</v>
+        <v>1873.187222845302</v>
       </c>
       <c r="AC2" t="n">
-        <v>1616.817218781188</v>
+        <v>1694.412863331725</v>
       </c>
       <c r="AD2" t="n">
-        <v>1306349.198693953</v>
+        <v>1369044.602295077</v>
       </c>
       <c r="AE2" t="n">
-        <v>1787404.605712246</v>
+        <v>1873187.222845302</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.414893443551489e-06</v>
+        <v>3.013352752998817e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.396875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1616817.218781188</v>
+        <v>1694412.863331725</v>
       </c>
     </row>
     <row r="3">
@@ -6466,28 +6466,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>819.0112166183811</v>
+        <v>871.3284290743355</v>
       </c>
       <c r="AB3" t="n">
-        <v>1120.607278802062</v>
+        <v>1192.189996956817</v>
       </c>
       <c r="AC3" t="n">
-        <v>1013.658092895387</v>
+        <v>1078.409056896428</v>
       </c>
       <c r="AD3" t="n">
-        <v>819011.2166183811</v>
+        <v>871328.4290743355</v>
       </c>
       <c r="AE3" t="n">
-        <v>1120607.278802062</v>
+        <v>1192189.996956817</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.772237395850497e-06</v>
+        <v>3.774401853434843e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.897916666666665</v>
       </c>
       <c r="AH3" t="n">
-        <v>1013658.092895387</v>
+        <v>1078409.056896428</v>
       </c>
     </row>
     <row r="4">
@@ -6572,28 +6572,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>780.6838430038862</v>
+        <v>833.0010554598406</v>
       </c>
       <c r="AB4" t="n">
-        <v>1068.166075338323</v>
+        <v>1139.748793493078</v>
       </c>
       <c r="AC4" t="n">
-        <v>966.2218042885353</v>
+        <v>1030.972768289576</v>
       </c>
       <c r="AD4" t="n">
-        <v>780683.8430038862</v>
+        <v>833001.0554598406</v>
       </c>
       <c r="AE4" t="n">
-        <v>1068166.075338323</v>
+        <v>1139748.793493078</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.811137703570134e-06</v>
+        <v>3.857249328552996e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.685416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>966221.8042885353</v>
+        <v>1030972.768289576</v>
       </c>
     </row>
   </sheetData>
@@ -6869,28 +6869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1989.09087280291</v>
+        <v>2065.808193780291</v>
       </c>
       <c r="AB2" t="n">
-        <v>2721.561884664988</v>
+        <v>2826.529907755576</v>
       </c>
       <c r="AC2" t="n">
-        <v>2461.819838128657</v>
+        <v>2556.769860419024</v>
       </c>
       <c r="AD2" t="n">
-        <v>1989090.87280291</v>
+        <v>2065808.193780291</v>
       </c>
       <c r="AE2" t="n">
-        <v>2721561.884664988</v>
+        <v>2826529.907755576</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.167993517191291e-06</v>
+        <v>2.371430652238522e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.36666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2461819.838128657</v>
+        <v>2556769.860419024</v>
       </c>
     </row>
     <row r="3">
@@ -6975,28 +6975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1135.364621139394</v>
+        <v>1201.110056562025</v>
       </c>
       <c r="AB3" t="n">
-        <v>1553.455963394917</v>
+        <v>1643.411768624065</v>
       </c>
       <c r="AC3" t="n">
-        <v>1405.196306537644</v>
+        <v>1486.566855969487</v>
       </c>
       <c r="AD3" t="n">
-        <v>1135364.621139394</v>
+        <v>1201110.056562024</v>
       </c>
       <c r="AE3" t="n">
-        <v>1553455.963394917</v>
+        <v>1643411.768624065</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.582993696540914e-06</v>
+        <v>3.214024495020099e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.60208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1405196.306537644</v>
+        <v>1486566.855969487</v>
       </c>
     </row>
     <row r="4">
@@ -7081,28 +7081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>934.796990813564</v>
+        <v>989.6559710445658</v>
       </c>
       <c r="AB4" t="n">
-        <v>1279.030483163757</v>
+        <v>1354.090960123211</v>
       </c>
       <c r="AC4" t="n">
-        <v>1156.961608981165</v>
+        <v>1224.85841936765</v>
       </c>
       <c r="AD4" t="n">
-        <v>934796.9908135639</v>
+        <v>989655.9710445658</v>
       </c>
       <c r="AE4" t="n">
-        <v>1279030.483163757</v>
+        <v>1354090.960123211</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.727180482456253e-06</v>
+        <v>3.506773520365407e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.716666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1156961.608981165</v>
+        <v>1224858.41936765</v>
       </c>
     </row>
     <row r="5">
@@ -7187,28 +7187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>859.7906007011964</v>
+        <v>914.4789887316059</v>
       </c>
       <c r="AB5" t="n">
-        <v>1176.403431163625</v>
+        <v>1251.230496348232</v>
       </c>
       <c r="AC5" t="n">
-        <v>1064.129138785953</v>
+        <v>1131.814813889787</v>
       </c>
       <c r="AD5" t="n">
-        <v>859790.6007011964</v>
+        <v>914478.9887316059</v>
       </c>
       <c r="AE5" t="n">
-        <v>1176403.431163625</v>
+        <v>1251230.496348232</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.780827632970005e-06</v>
+        <v>3.615695783426844e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.423958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1064129.138785953</v>
+        <v>1131814.813889787</v>
       </c>
     </row>
     <row r="6">
@@ -7293,28 +7293,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>863.1290806282555</v>
+        <v>917.8174686586651</v>
       </c>
       <c r="AB6" t="n">
-        <v>1180.971286683167</v>
+        <v>1255.798351867774</v>
       </c>
       <c r="AC6" t="n">
-        <v>1068.261044585736</v>
+        <v>1135.94671968957</v>
       </c>
       <c r="AD6" t="n">
-        <v>863129.0806282555</v>
+        <v>917817.4686586651</v>
       </c>
       <c r="AE6" t="n">
-        <v>1180971.286683167</v>
+        <v>1255798.351867774</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.782277555956863e-06</v>
+        <v>3.618639628374451e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.415625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1068261.044585736</v>
+        <v>1135946.71968957</v>
       </c>
     </row>
   </sheetData>
@@ -7590,28 +7590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>910.1226040940278</v>
+        <v>960.3551350875459</v>
       </c>
       <c r="AB2" t="n">
-        <v>1245.269898696972</v>
+        <v>1314.000263705166</v>
       </c>
       <c r="AC2" t="n">
-        <v>1126.423087312612</v>
+        <v>1188.593922748098</v>
       </c>
       <c r="AD2" t="n">
-        <v>910122.6040940278</v>
+        <v>960355.135087546</v>
       </c>
       <c r="AE2" t="n">
-        <v>1245269.898696972</v>
+        <v>1314000.263705166</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.635638190728559e-06</v>
+        <v>3.642246771291308e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.13854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1126423.087312612</v>
+        <v>1188593.922748098</v>
       </c>
     </row>
     <row r="3">
@@ -7696,28 +7696,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>732.4693649416121</v>
+        <v>782.6165550805591</v>
       </c>
       <c r="AB3" t="n">
-        <v>1002.196899380869</v>
+        <v>1070.810497266866</v>
       </c>
       <c r="AC3" t="n">
-        <v>906.5486338961408</v>
+        <v>968.6138462996879</v>
       </c>
       <c r="AD3" t="n">
-        <v>732469.3649416121</v>
+        <v>782616.5550805591</v>
       </c>
       <c r="AE3" t="n">
-        <v>1002196.899380869</v>
+        <v>1070810.497266866</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.80966085965231e-06</v>
+        <v>4.029761264173563e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.06666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>906548.6338961408</v>
+        <v>968613.8462996879</v>
       </c>
     </row>
   </sheetData>
@@ -7993,28 +7993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4659.851312750092</v>
+        <v>4790.415505499031</v>
       </c>
       <c r="AB2" t="n">
-        <v>6375.814144235983</v>
+        <v>6554.457832840748</v>
       </c>
       <c r="AC2" t="n">
-        <v>5767.315390821213</v>
+        <v>5928.909576513525</v>
       </c>
       <c r="AD2" t="n">
-        <v>4659851.312750092</v>
+        <v>4790415.50549903</v>
       </c>
       <c r="AE2" t="n">
-        <v>6375814.144235983</v>
+        <v>6554457.832840748</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.531828355712456e-07</v>
+        <v>1.424090741328433e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.68541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>5767315.390821213</v>
+        <v>5928909.576513525</v>
       </c>
     </row>
     <row r="3">
@@ -8099,28 +8099,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1903.697423394275</v>
+        <v>1974.875554013806</v>
       </c>
       <c r="AB3" t="n">
-        <v>2604.722799890989</v>
+        <v>2702.111858362133</v>
       </c>
       <c r="AC3" t="n">
-        <v>2356.131711620803</v>
+        <v>2444.226095037862</v>
       </c>
       <c r="AD3" t="n">
-        <v>1903697.423394275</v>
+        <v>1974875.554013806</v>
       </c>
       <c r="AE3" t="n">
-        <v>2604722.799890989</v>
+        <v>2702111.858362133</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.261237262186718e-06</v>
+        <v>2.384701592855972e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.35208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2356131.711620803</v>
+        <v>2444226.095037862</v>
       </c>
     </row>
     <row r="4">
@@ -8205,28 +8205,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1493.507277031307</v>
+        <v>1564.685318142286</v>
       </c>
       <c r="AB4" t="n">
-        <v>2043.482545325093</v>
+        <v>2140.871481326687</v>
       </c>
       <c r="AC4" t="n">
-        <v>1848.45543924503</v>
+        <v>1936.549711880864</v>
       </c>
       <c r="AD4" t="n">
-        <v>1493507.277031307</v>
+        <v>1564685.318142287</v>
       </c>
       <c r="AE4" t="n">
-        <v>2043482.545325093</v>
+        <v>2140871.481326688</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.445943537391343e-06</v>
+        <v>2.733937507379525e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.77395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1848455.43924503</v>
+        <v>1936549.711880864</v>
       </c>
     </row>
     <row r="5">
@@ -8311,28 +8311,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1325.975353238177</v>
+        <v>1385.276253530116</v>
       </c>
       <c r="AB5" t="n">
-        <v>1814.257976204485</v>
+        <v>1895.396084154996</v>
       </c>
       <c r="AC5" t="n">
-        <v>1641.10774128259</v>
+        <v>1714.502142088354</v>
       </c>
       <c r="AD5" t="n">
-        <v>1325975.353238177</v>
+        <v>1385276.253530116</v>
       </c>
       <c r="AE5" t="n">
-        <v>1814257.976204484</v>
+        <v>1895396.084154996</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.544353844342471e-06</v>
+        <v>2.920008140380738e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.08854166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1641107.74128259</v>
+        <v>1714502.142088354</v>
       </c>
     </row>
     <row r="6">
@@ -8417,28 +8417,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1214.226769066985</v>
+        <v>1273.612920704944</v>
       </c>
       <c r="AB6" t="n">
-        <v>1661.358633341868</v>
+        <v>1742.613385945028</v>
       </c>
       <c r="AC6" t="n">
-        <v>1502.800897107206</v>
+        <v>1576.300810163683</v>
       </c>
       <c r="AD6" t="n">
-        <v>1214226.769066985</v>
+        <v>1273612.920704944</v>
       </c>
       <c r="AE6" t="n">
-        <v>1661358.633341868</v>
+        <v>1742613.385945028</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.604626418356611e-06</v>
+        <v>3.033969333541055e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.709375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1502800.897107206</v>
+        <v>1576300.810163683</v>
       </c>
     </row>
     <row r="7">
@@ -8523,28 +8523,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1140.173933395168</v>
+        <v>1199.389492832535</v>
       </c>
       <c r="AB7" t="n">
-        <v>1560.03627659515</v>
+        <v>1641.057617423463</v>
       </c>
       <c r="AC7" t="n">
-        <v>1411.148603881574</v>
+        <v>1484.437381655399</v>
       </c>
       <c r="AD7" t="n">
-        <v>1140173.933395168</v>
+        <v>1199389.492832535</v>
       </c>
       <c r="AE7" t="n">
-        <v>1560036.27659515</v>
+        <v>1641057.617423463</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.647101383666824e-06</v>
+        <v>3.114279454775621e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.458333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1411148.603881574</v>
+        <v>1484437.381655399</v>
       </c>
     </row>
     <row r="8">
@@ -8629,28 +8629,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1077.407599933719</v>
+        <v>1136.623159371086</v>
       </c>
       <c r="AB8" t="n">
-        <v>1474.156610097994</v>
+        <v>1555.177950926307</v>
       </c>
       <c r="AC8" t="n">
-        <v>1333.465172222037</v>
+        <v>1406.753949995863</v>
       </c>
       <c r="AD8" t="n">
-        <v>1077407.599933719</v>
+        <v>1136623.159371086</v>
       </c>
       <c r="AE8" t="n">
-        <v>1474156.610097993</v>
+        <v>1555177.950926307</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.67791068949043e-06</v>
+        <v>3.172532570882384e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.285416666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1333465.172222037</v>
+        <v>1406753.949995863</v>
       </c>
     </row>
     <row r="9">
@@ -8735,28 +8735,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1036.712128822653</v>
+        <v>1084.221139641571</v>
       </c>
       <c r="AB9" t="n">
-        <v>1418.475271166357</v>
+        <v>1483.479195718433</v>
       </c>
       <c r="AC9" t="n">
-        <v>1283.097982128786</v>
+        <v>1341.898023355193</v>
       </c>
       <c r="AD9" t="n">
-        <v>1036712.128822653</v>
+        <v>1084221.139641571</v>
       </c>
       <c r="AE9" t="n">
-        <v>1418475.271166357</v>
+        <v>1483479.195718433</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.695259618983334e-06</v>
+        <v>3.205335296457066e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.189583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1283097.982128786</v>
+        <v>1341898.023355193</v>
       </c>
     </row>
     <row r="10">
@@ -8841,28 +8841,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1034.29044862943</v>
+        <v>1081.799459448348</v>
       </c>
       <c r="AB10" t="n">
-        <v>1415.161821488999</v>
+        <v>1480.165746041076</v>
       </c>
       <c r="AC10" t="n">
-        <v>1280.100763438179</v>
+        <v>1338.900804664587</v>
       </c>
       <c r="AD10" t="n">
-        <v>1034290.44862943</v>
+        <v>1081799.459448348</v>
       </c>
       <c r="AE10" t="n">
-        <v>1415161.821488999</v>
+        <v>1480165.746041076</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.698400373460497e-06</v>
+        <v>3.211273720914551e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.172916666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1280100.763438179</v>
+        <v>1338900.804664587</v>
       </c>
     </row>
     <row r="11">
@@ -8947,28 +8947,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1039.431762705977</v>
+        <v>1086.940773524895</v>
       </c>
       <c r="AB11" t="n">
-        <v>1422.1963942273</v>
+        <v>1487.200318779377</v>
       </c>
       <c r="AC11" t="n">
-        <v>1286.463966427421</v>
+        <v>1345.264007653829</v>
       </c>
       <c r="AD11" t="n">
-        <v>1039431.762705977</v>
+        <v>1086940.773524895</v>
       </c>
       <c r="AE11" t="n">
-        <v>1422196.3942273</v>
+        <v>1487200.318779377</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.698101253986482e-06</v>
+        <v>3.210708156680505e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.173958333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1286463.966427421</v>
+        <v>1345264.007653829</v>
       </c>
     </row>
   </sheetData>
@@ -9244,28 +9244,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>725.9007216213653</v>
+        <v>784.6129146755862</v>
       </c>
       <c r="AB2" t="n">
-        <v>993.2093918020163</v>
+        <v>1073.542004537952</v>
       </c>
       <c r="AC2" t="n">
-        <v>898.4188814265676</v>
+        <v>971.0846623505156</v>
       </c>
       <c r="AD2" t="n">
-        <v>725900.7216213653</v>
+        <v>784612.9146755863</v>
       </c>
       <c r="AE2" t="n">
-        <v>993209.3918020163</v>
+        <v>1073542.004537952</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.75943794649822e-06</v>
+        <v>4.033628931635531e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.596875</v>
       </c>
       <c r="AH2" t="n">
-        <v>898418.8814265677</v>
+        <v>971084.6623505156</v>
       </c>
     </row>
     <row r="3">
@@ -9350,28 +9350,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>703.9866963044599</v>
+        <v>752.8993898824331</v>
       </c>
       <c r="AB3" t="n">
-        <v>963.2256555848614</v>
+        <v>1030.150160813989</v>
       </c>
       <c r="AC3" t="n">
-        <v>871.2967509115397</v>
+        <v>931.8340752907332</v>
       </c>
       <c r="AD3" t="n">
-        <v>703986.6963044599</v>
+        <v>752899.3898824331</v>
       </c>
       <c r="AE3" t="n">
-        <v>963225.6555848614</v>
+        <v>1030150.16081399</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.793982353789588e-06</v>
+        <v>4.112824291127459e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.39270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>871296.7509115397</v>
+        <v>931834.0752907331</v>
       </c>
     </row>
   </sheetData>
@@ -9647,28 +9647,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2877.447005788015</v>
+        <v>2979.919280933356</v>
       </c>
       <c r="AB2" t="n">
-        <v>3937.049937322025</v>
+        <v>4077.257024933609</v>
       </c>
       <c r="AC2" t="n">
-        <v>3561.303416988154</v>
+        <v>3688.129336939966</v>
       </c>
       <c r="AD2" t="n">
-        <v>2877447.005788015</v>
+        <v>2979919.280933356</v>
       </c>
       <c r="AE2" t="n">
-        <v>3937049.937322025</v>
+        <v>4077257.024933609</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.70721733135545e-07</v>
+        <v>1.902601181635208e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.68541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3561303.416988154</v>
+        <v>3688129.336939966</v>
       </c>
     </row>
     <row r="3">
@@ -9753,28 +9753,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1452.79191032199</v>
+        <v>1520.99306212134</v>
       </c>
       <c r="AB3" t="n">
-        <v>1987.773984358198</v>
+        <v>2081.089809072533</v>
       </c>
       <c r="AC3" t="n">
-        <v>1798.06362514936</v>
+        <v>1882.473518522542</v>
       </c>
       <c r="AD3" t="n">
-        <v>1452791.91032199</v>
+        <v>1520993.06212134</v>
       </c>
       <c r="AE3" t="n">
-        <v>1987773.984358198</v>
+        <v>2081089.809072533</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.429882597775825e-06</v>
+        <v>2.802550130757228e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.32708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1798063.62514936</v>
+        <v>1882473.518522542</v>
       </c>
     </row>
     <row r="4">
@@ -9859,28 +9859,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1182.1057449576</v>
+        <v>1238.996946944865</v>
       </c>
       <c r="AB4" t="n">
-        <v>1617.409231075836</v>
+        <v>1695.250283497506</v>
       </c>
       <c r="AC4" t="n">
-        <v>1463.045964110071</v>
+        <v>1533.457975739219</v>
       </c>
       <c r="AD4" t="n">
-        <v>1182105.7449576</v>
+        <v>1238996.946944865</v>
       </c>
       <c r="AE4" t="n">
-        <v>1617409.231075836</v>
+        <v>1695250.283497506</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.594390621747858e-06</v>
+        <v>3.124983584252351e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.15833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1463045.964110071</v>
+        <v>1533457.975739219</v>
       </c>
     </row>
     <row r="5">
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1044.415739112654</v>
+        <v>1101.392192445939</v>
       </c>
       <c r="AB5" t="n">
-        <v>1429.015690624437</v>
+        <v>1506.973387698755</v>
       </c>
       <c r="AC5" t="n">
-        <v>1292.632438747358</v>
+        <v>1363.149962627219</v>
       </c>
       <c r="AD5" t="n">
-        <v>1044415.739112654</v>
+        <v>1101392.192445939</v>
       </c>
       <c r="AE5" t="n">
-        <v>1429015.690624437</v>
+        <v>1506973.387698755</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.680065405498889e-06</v>
+        <v>3.292904976384498e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.640625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1292632.438747358</v>
+        <v>1363149.962627219</v>
       </c>
     </row>
     <row r="6">
@@ -10071,28 +10071,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>955.9612270903253</v>
+        <v>1012.767088223018</v>
       </c>
       <c r="AB6" t="n">
-        <v>1307.988324937829</v>
+        <v>1385.712610237301</v>
       </c>
       <c r="AC6" t="n">
-        <v>1183.155754978906</v>
+        <v>1253.462143576115</v>
       </c>
       <c r="AD6" t="n">
-        <v>955961.2270903253</v>
+        <v>1012767.088223018</v>
       </c>
       <c r="AE6" t="n">
-        <v>1307988.324937829</v>
+        <v>1385712.610237301</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.733087367856605e-06</v>
+        <v>3.396827289845592e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.345833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1183155.754978906</v>
+        <v>1253462.143576115</v>
       </c>
     </row>
     <row r="7">
@@ -10177,28 +10177,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>933.569028878734</v>
+        <v>990.3748900114266</v>
       </c>
       <c r="AB7" t="n">
-        <v>1277.350331470665</v>
+        <v>1355.074616770137</v>
       </c>
       <c r="AC7" t="n">
-        <v>1155.441808607554</v>
+        <v>1225.748197204764</v>
       </c>
       <c r="AD7" t="n">
-        <v>933569.028878734</v>
+        <v>990374.8900114266</v>
       </c>
       <c r="AE7" t="n">
-        <v>1277350.331470665</v>
+        <v>1355074.616770137</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.746303986039613e-06</v>
+        <v>3.422731678831495e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.275</v>
       </c>
       <c r="AH7" t="n">
-        <v>1155441.808607554</v>
+        <v>1225748.197204764</v>
       </c>
     </row>
     <row r="8">
@@ -10283,28 +10283,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>938.2328650451033</v>
+        <v>995.0387261777959</v>
       </c>
       <c r="AB8" t="n">
-        <v>1283.731597867422</v>
+        <v>1361.455883166894</v>
       </c>
       <c r="AC8" t="n">
-        <v>1161.214055895568</v>
+        <v>1231.520444492778</v>
       </c>
       <c r="AD8" t="n">
-        <v>938232.8650451032</v>
+        <v>995038.7261777959</v>
       </c>
       <c r="AE8" t="n">
-        <v>1283731.597867422</v>
+        <v>1361455.883166894</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.746459475665296e-06</v>
+        <v>3.423036436348976e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.273958333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1161214.055895568</v>
+        <v>1231520.444492778</v>
       </c>
     </row>
   </sheetData>
@@ -10580,28 +10580,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3651.328878061536</v>
+        <v>3767.702309867011</v>
       </c>
       <c r="AB2" t="n">
-        <v>4995.909256225352</v>
+        <v>5155.136519655081</v>
       </c>
       <c r="AC2" t="n">
-        <v>4519.106688613696</v>
+        <v>4663.137525498552</v>
       </c>
       <c r="AD2" t="n">
-        <v>3651328.878061536</v>
+        <v>3767702.309867011</v>
       </c>
       <c r="AE2" t="n">
-        <v>4995909.256225352</v>
+        <v>5155136.519655081</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.577240541179892e-07</v>
+        <v>1.649148681704482e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.503125</v>
       </c>
       <c r="AH2" t="n">
-        <v>4519106.688613696</v>
+        <v>4663137.525498552</v>
       </c>
     </row>
     <row r="3">
@@ -10686,28 +10686,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1665.832209081407</v>
+        <v>1735.707472677434</v>
       </c>
       <c r="AB3" t="n">
-        <v>2279.265119795487</v>
+        <v>2374.871538126637</v>
       </c>
       <c r="AC3" t="n">
-        <v>2061.735255730892</v>
+        <v>2148.217131680968</v>
       </c>
       <c r="AD3" t="n">
-        <v>1665832.209081407</v>
+        <v>1735707.472677434</v>
       </c>
       <c r="AE3" t="n">
-        <v>2279265.119795487</v>
+        <v>2374871.538126637</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.341736366717075e-06</v>
+        <v>2.579760646495803e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2061735.255730892</v>
+        <v>2148217.131680968</v>
       </c>
     </row>
     <row r="4">
@@ -10792,28 +10792,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1335.98921145048</v>
+        <v>1394.133346434482</v>
       </c>
       <c r="AB4" t="n">
-        <v>1827.959378790802</v>
+        <v>1907.514749414111</v>
       </c>
       <c r="AC4" t="n">
-        <v>1653.501501236109</v>
+        <v>1725.464218943793</v>
       </c>
       <c r="AD4" t="n">
-        <v>1335989.21145048</v>
+        <v>1394133.346434482</v>
       </c>
       <c r="AE4" t="n">
-        <v>1827959.378790802</v>
+        <v>1907514.749414111</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.517242247772834e-06</v>
+        <v>2.917206344777076e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.46041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1653501.501236109</v>
+        <v>1725464.218943793</v>
       </c>
     </row>
     <row r="5">
@@ -10898,28 +10898,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1179.898632050783</v>
+        <v>1238.128018380806</v>
       </c>
       <c r="AB5" t="n">
-        <v>1614.38936182578</v>
+        <v>1694.061377101738</v>
       </c>
       <c r="AC5" t="n">
-        <v>1460.314306942827</v>
+        <v>1532.382536901224</v>
       </c>
       <c r="AD5" t="n">
-        <v>1179898.632050783</v>
+        <v>1238128.018380806</v>
       </c>
       <c r="AE5" t="n">
-        <v>1614389.36182578</v>
+        <v>1694061.377101738</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.609108607387958e-06</v>
+        <v>3.093838077471179e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.862500000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>1460314.306942827</v>
+        <v>1532382.536901224</v>
       </c>
     </row>
     <row r="6">
@@ -11004,28 +11004,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1087.356719483015</v>
+        <v>1145.586105813038</v>
       </c>
       <c r="AB6" t="n">
-        <v>1487.769434389516</v>
+        <v>1567.441449665475</v>
       </c>
       <c r="AC6" t="n">
-        <v>1345.778807668896</v>
+        <v>1417.847037627293</v>
       </c>
       <c r="AD6" t="n">
-        <v>1087356.719483015</v>
+        <v>1145586.105813038</v>
       </c>
       <c r="AE6" t="n">
-        <v>1487769.434389516</v>
+        <v>1567441.449665475</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.666544125754296e-06</v>
+        <v>3.20426952560663e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.522916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1345778.807668896</v>
+        <v>1417847.037627293</v>
       </c>
     </row>
     <row r="7">
@@ -11110,28 +11110,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1017.289127853031</v>
+        <v>1075.347921982462</v>
       </c>
       <c r="AB7" t="n">
-        <v>1391.899864357393</v>
+        <v>1471.338467858505</v>
       </c>
       <c r="AC7" t="n">
-        <v>1259.058894846852</v>
+        <v>1330.915989522597</v>
       </c>
       <c r="AD7" t="n">
-        <v>1017289.127853031</v>
+        <v>1075347.921982462</v>
       </c>
       <c r="AE7" t="n">
-        <v>1391899.864357393</v>
+        <v>1471338.467858505</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.70478368838016e-06</v>
+        <v>3.277792850492567e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.309375000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>1259058.894846852</v>
+        <v>1330915.989522597</v>
       </c>
     </row>
     <row r="8">
@@ -11216,28 +11216,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>982.0290091056247</v>
+        <v>1028.612607678194</v>
       </c>
       <c r="AB8" t="n">
-        <v>1343.655414320539</v>
+        <v>1407.393149010854</v>
       </c>
       <c r="AC8" t="n">
-        <v>1215.418827410004</v>
+        <v>1273.073522157948</v>
       </c>
       <c r="AD8" t="n">
-        <v>982029.0091056247</v>
+        <v>1028612.607678194</v>
       </c>
       <c r="AE8" t="n">
-        <v>1343655.414320539</v>
+        <v>1407393.149010854</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.722151457859636e-06</v>
+        <v>3.311185914384985e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.214583333333332</v>
       </c>
       <c r="AH8" t="n">
-        <v>1215418.827410004</v>
+        <v>1273073.522157948</v>
       </c>
     </row>
     <row r="9">
@@ -11322,28 +11322,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>985.3335604445485</v>
+        <v>1031.917159017118</v>
       </c>
       <c r="AB9" t="n">
-        <v>1348.17684724897</v>
+        <v>1411.914581939286</v>
       </c>
       <c r="AC9" t="n">
-        <v>1219.508741125617</v>
+        <v>1277.163435873561</v>
       </c>
       <c r="AD9" t="n">
-        <v>985333.5604445485</v>
+        <v>1031917.159017118</v>
       </c>
       <c r="AE9" t="n">
-        <v>1348176.847248971</v>
+        <v>1411914.581939286</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.722913202135052e-06</v>
+        <v>3.312650522450441e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.210416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1219508.741125617</v>
+        <v>1277163.435873561</v>
       </c>
     </row>
   </sheetData>
@@ -11619,28 +11619,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6003.396015559145</v>
+        <v>6148.339688630987</v>
       </c>
       <c r="AB2" t="n">
-        <v>8214.111279628443</v>
+        <v>8412.429607588905</v>
       </c>
       <c r="AC2" t="n">
-        <v>7430.168027677982</v>
+        <v>7609.559132759413</v>
       </c>
       <c r="AD2" t="n">
-        <v>6003396.015559145</v>
+        <v>6148339.688630987</v>
       </c>
       <c r="AE2" t="n">
-        <v>8214111.279628443</v>
+        <v>8412429.607588906</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.573163288478287e-07</v>
+        <v>1.22453046555037e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.30416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>7430168.027677981</v>
+        <v>7609559.132759413</v>
       </c>
     </row>
     <row r="3">
@@ -11725,28 +11725,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2149.246044087651</v>
+        <v>2233.810691308669</v>
       </c>
       <c r="AB3" t="n">
-        <v>2940.693255564267</v>
+        <v>3056.398336621173</v>
       </c>
       <c r="AC3" t="n">
-        <v>2660.037618542119</v>
+        <v>2764.69996905594</v>
       </c>
       <c r="AD3" t="n">
-        <v>2149246.044087651</v>
+        <v>2233810.691308669</v>
       </c>
       <c r="AE3" t="n">
-        <v>2940693.255564267</v>
+        <v>3056398.336621173</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.186110404583129e-06</v>
+        <v>2.209633721505433e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.91458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2660037.618542119</v>
+        <v>2764699.969055939</v>
       </c>
     </row>
     <row r="4">
@@ -11831,28 +11831,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1663.270680913264</v>
+        <v>1723.735047618663</v>
       </c>
       <c r="AB4" t="n">
-        <v>2275.760323949187</v>
+        <v>2358.49033797511</v>
       </c>
       <c r="AC4" t="n">
-        <v>2058.564952681151</v>
+        <v>2133.399330280744</v>
       </c>
       <c r="AD4" t="n">
-        <v>1663270.680913264</v>
+        <v>1723735.047618662</v>
       </c>
       <c r="AE4" t="n">
-        <v>2275760.323949187</v>
+        <v>2358490.33797511</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.382422999440366e-06</v>
+        <v>2.575349196116114e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.08020833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2058564.952681151</v>
+        <v>2133399.330280744</v>
       </c>
     </row>
     <row r="5">
@@ -11937,28 +11937,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1462.172077051037</v>
+        <v>1522.551102901864</v>
       </c>
       <c r="AB5" t="n">
-        <v>2000.608342300629</v>
+        <v>2083.221589204355</v>
       </c>
       <c r="AC5" t="n">
-        <v>1809.6730899829</v>
+        <v>1884.401844550554</v>
       </c>
       <c r="AD5" t="n">
-        <v>1462172.077051037</v>
+        <v>1522551.102901864</v>
       </c>
       <c r="AE5" t="n">
-        <v>2000608.342300629</v>
+        <v>2083221.589204355</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.483887936108152e-06</v>
+        <v>2.764370677375567e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.32291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1809673.0899829</v>
+        <v>1884401.844550554</v>
       </c>
     </row>
     <row r="6">
@@ -12043,28 +12043,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1336.92124839212</v>
+        <v>1397.385525588967</v>
       </c>
       <c r="AB6" t="n">
-        <v>1829.234632852921</v>
+        <v>1911.964524409295</v>
       </c>
       <c r="AC6" t="n">
-        <v>1654.655046840369</v>
+        <v>1729.489313658735</v>
       </c>
       <c r="AD6" t="n">
-        <v>1336921.24839212</v>
+        <v>1397385.525588967</v>
       </c>
       <c r="AE6" t="n">
-        <v>1829234.632852921</v>
+        <v>1911964.524409295</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.548590214562972e-06</v>
+        <v>2.884906114700435e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.890625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1654655.046840369</v>
+        <v>1729489.313658735</v>
       </c>
     </row>
     <row r="7">
@@ -12149,28 +12149,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1260.075634554117</v>
+        <v>1320.539911750965</v>
       </c>
       <c r="AB7" t="n">
-        <v>1724.091073810552</v>
+        <v>1806.820965366926</v>
       </c>
       <c r="AC7" t="n">
-        <v>1559.546241503092</v>
+        <v>1634.380508321458</v>
       </c>
       <c r="AD7" t="n">
-        <v>1260075.634554117</v>
+        <v>1320539.911750965</v>
       </c>
       <c r="AE7" t="n">
-        <v>1724091.073810552</v>
+        <v>1806820.965366926</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.592264252519975e-06</v>
+        <v>2.966267534894722e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.620833333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1559546.241503092</v>
+        <v>1634380.508321458</v>
       </c>
     </row>
     <row r="8">
@@ -12255,28 +12255,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1197.281075476849</v>
+        <v>1257.574760473104</v>
       </c>
       <c r="AB8" t="n">
-        <v>1638.172787780604</v>
+        <v>1720.669267562132</v>
       </c>
       <c r="AC8" t="n">
-        <v>1481.82787610477</v>
+        <v>1556.451007640486</v>
       </c>
       <c r="AD8" t="n">
-        <v>1197281.075476849</v>
+        <v>1257574.760473104</v>
       </c>
       <c r="AE8" t="n">
-        <v>1638172.787780604</v>
+        <v>1720669.267562132</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.624321290481682e-06</v>
+        <v>3.025987365205679e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.430208333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1481827.87610477</v>
+        <v>1556451.007640486</v>
       </c>
     </row>
     <row r="9">
@@ -12361,28 +12361,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1143.171381141261</v>
+        <v>1203.465066137516</v>
       </c>
       <c r="AB9" t="n">
-        <v>1564.137516839416</v>
+        <v>1646.633996620943</v>
       </c>
       <c r="AC9" t="n">
-        <v>1414.858427513054</v>
+        <v>1489.481559048769</v>
       </c>
       <c r="AD9" t="n">
-        <v>1143171.381141261</v>
+        <v>1203465.066137516</v>
       </c>
       <c r="AE9" t="n">
-        <v>1564137.516839416</v>
+        <v>1646633.996620943</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.651084505660721e-06</v>
+        <v>3.075845205190057e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.278124999999999</v>
       </c>
       <c r="AH9" t="n">
-        <v>1414858.427513054</v>
+        <v>1489481.559048769</v>
       </c>
     </row>
     <row r="10">
@@ -12467,28 +12467,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1098.742125198985</v>
+        <v>1147.113636465014</v>
       </c>
       <c r="AB10" t="n">
-        <v>1503.347448778757</v>
+        <v>1569.531484493405</v>
       </c>
       <c r="AC10" t="n">
-        <v>1359.870078228708</v>
+        <v>1419.737602464628</v>
       </c>
       <c r="AD10" t="n">
-        <v>1098742.125198985</v>
+        <v>1147113.636465014</v>
       </c>
       <c r="AE10" t="n">
-        <v>1503347.448778757</v>
+        <v>1569531.484493405</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.668730581602944e-06</v>
+        <v>3.108718506278657e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.179166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1359870.078228708</v>
+        <v>1419737.602464627</v>
       </c>
     </row>
     <row r="11">
@@ -12573,28 +12573,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1082.881893574198</v>
+        <v>1131.253404840227</v>
       </c>
       <c r="AB11" t="n">
-        <v>1481.646780165686</v>
+        <v>1547.830815880334</v>
       </c>
       <c r="AC11" t="n">
-        <v>1340.240490970989</v>
+        <v>1400.108015206908</v>
       </c>
       <c r="AD11" t="n">
-        <v>1082881.893574198</v>
+        <v>1131253.404840227</v>
       </c>
       <c r="AE11" t="n">
-        <v>1481646.780165686</v>
+        <v>1547830.815880334</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.676524265144093e-06</v>
+        <v>3.123237547592789e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.136458333333332</v>
       </c>
       <c r="AH11" t="n">
-        <v>1340240.490970989</v>
+        <v>1400108.015206909</v>
       </c>
     </row>
     <row r="12">
@@ -12679,28 +12679,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1086.152000802456</v>
+        <v>1134.523512068485</v>
       </c>
       <c r="AB12" t="n">
-        <v>1486.121085142339</v>
+        <v>1552.305120856987</v>
       </c>
       <c r="AC12" t="n">
-        <v>1344.287774560396</v>
+        <v>1404.155298796316</v>
       </c>
       <c r="AD12" t="n">
-        <v>1086152.000802456</v>
+        <v>1134523.512068485</v>
       </c>
       <c r="AE12" t="n">
-        <v>1486121.085142339</v>
+        <v>1552305.120856987</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.675936062612685e-06</v>
+        <v>3.122141770889836e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.139583333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1344287.774560396</v>
+        <v>1404155.298796316</v>
       </c>
     </row>
     <row r="13">
@@ -12785,28 +12785,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1090.399755774086</v>
+        <v>1138.771267040115</v>
       </c>
       <c r="AB13" t="n">
-        <v>1491.933050892246</v>
+        <v>1558.117086606894</v>
       </c>
       <c r="AC13" t="n">
-        <v>1349.545054456278</v>
+        <v>1409.412578692197</v>
       </c>
       <c r="AD13" t="n">
-        <v>1090399.755774086</v>
+        <v>1138771.267040115</v>
       </c>
       <c r="AE13" t="n">
-        <v>1491933.050892246</v>
+        <v>1558117.086606894</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.675936062612685e-06</v>
+        <v>3.122141770889836e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.139583333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1349545.054456278</v>
+        <v>1409412.578692197</v>
       </c>
     </row>
   </sheetData>
@@ -13082,28 +13082,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2258.048677248647</v>
+        <v>2335.892151180962</v>
       </c>
       <c r="AB2" t="n">
-        <v>3089.561818288725</v>
+        <v>3196.070693534619</v>
       </c>
       <c r="AC2" t="n">
-        <v>2794.698374578379</v>
+        <v>2891.042192256946</v>
       </c>
       <c r="AD2" t="n">
-        <v>2258048.677248647</v>
+        <v>2335892.151180962</v>
       </c>
       <c r="AE2" t="n">
-        <v>3089561.818288725</v>
+        <v>3196070.693534619</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.098649924524379e-06</v>
+        <v>2.20224086774091e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.084375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2794698.374578379</v>
+        <v>2891042.192256946</v>
       </c>
     </row>
     <row r="3">
@@ -13188,28 +13188,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1238.170323411668</v>
+        <v>1304.807883491751</v>
       </c>
       <c r="AB3" t="n">
-        <v>1694.119260711329</v>
+        <v>1785.295710254566</v>
       </c>
       <c r="AC3" t="n">
-        <v>1532.434896180355</v>
+        <v>1614.909593346136</v>
       </c>
       <c r="AD3" t="n">
-        <v>1238170.323411668</v>
+        <v>1304807.883491751</v>
       </c>
       <c r="AE3" t="n">
-        <v>1694119.260711329</v>
+        <v>1785295.710254566</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.527387478331677e-06</v>
+        <v>3.061644160321529e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.85</v>
       </c>
       <c r="AH3" t="n">
-        <v>1532434.896180355</v>
+        <v>1614909.593346136</v>
       </c>
     </row>
     <row r="4">
@@ -13294,28 +13294,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1014.442318069855</v>
+        <v>1070.0447355154</v>
       </c>
       <c r="AB4" t="n">
-        <v>1388.004733619668</v>
+        <v>1464.082414174196</v>
       </c>
       <c r="AC4" t="n">
-        <v>1255.535509919885</v>
+        <v>1324.352443417984</v>
       </c>
       <c r="AD4" t="n">
-        <v>1014442.318069855</v>
+        <v>1070044.7355154</v>
       </c>
       <c r="AE4" t="n">
-        <v>1388004.733619668</v>
+        <v>1464082.414174196</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.680269403826598e-06</v>
+        <v>3.368095575597958e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.862500000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>1255535.509919885</v>
+        <v>1324352.443417984</v>
       </c>
     </row>
     <row r="5">
@@ -13400,28 +13400,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>903.5948386743697</v>
+        <v>959.0266639193228</v>
       </c>
       <c r="AB5" t="n">
-        <v>1236.33832206511</v>
+        <v>1312.182590844792</v>
       </c>
       <c r="AC5" t="n">
-        <v>1118.343927818949</v>
+        <v>1186.949726034397</v>
       </c>
       <c r="AD5" t="n">
-        <v>903594.8386743697</v>
+        <v>959026.6639193228</v>
       </c>
       <c r="AE5" t="n">
-        <v>1236338.32206511</v>
+        <v>1312182.590844792</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.757903513755341e-06</v>
+        <v>3.523712943605135e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.427083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1118343.927818949</v>
+        <v>1186949.726034397</v>
       </c>
     </row>
     <row r="6">
@@ -13506,28 +13506,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>885.1554180403539</v>
+        <v>940.587243285307</v>
       </c>
       <c r="AB6" t="n">
-        <v>1211.108693263825</v>
+        <v>1286.952962043506</v>
       </c>
       <c r="AC6" t="n">
-        <v>1095.522179380451</v>
+        <v>1164.1279775959</v>
       </c>
       <c r="AD6" t="n">
-        <v>885155.4180403539</v>
+        <v>940587.243285307</v>
       </c>
       <c r="AE6" t="n">
-        <v>1211108.693263825</v>
+        <v>1286952.962043506</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.771744021058211e-06</v>
+        <v>3.551456203885102e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.353125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1095522.179380452</v>
+        <v>1164127.9775959</v>
       </c>
     </row>
     <row r="7">
@@ -13612,28 +13612,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>890.7734442710563</v>
+        <v>946.2052695160094</v>
       </c>
       <c r="AB7" t="n">
-        <v>1218.795524602497</v>
+        <v>1294.639793382178</v>
       </c>
       <c r="AC7" t="n">
-        <v>1102.475390324696</v>
+        <v>1171.081188540145</v>
       </c>
       <c r="AD7" t="n">
-        <v>890773.4442710563</v>
+        <v>946205.2695160094</v>
       </c>
       <c r="AE7" t="n">
-        <v>1218795.524602497</v>
+        <v>1294639.793382178</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.771425848476536e-06</v>
+        <v>3.550818427786712e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.354166666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1102475.390324696</v>
+        <v>1171081.188540145</v>
       </c>
     </row>
   </sheetData>
@@ -13909,28 +13909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1519.74260379799</v>
+        <v>1583.614187347773</v>
       </c>
       <c r="AB2" t="n">
-        <v>2079.378876828199</v>
+        <v>2166.770795256407</v>
       </c>
       <c r="AC2" t="n">
-        <v>1880.925875250298</v>
+        <v>1959.977231639046</v>
       </c>
       <c r="AD2" t="n">
-        <v>1519742.60379799</v>
+        <v>1583614.187347773</v>
       </c>
       <c r="AE2" t="n">
-        <v>2079378.876828199</v>
+        <v>2166770.795256407</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.325887154917905e-06</v>
+        <v>2.773838846309018e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.01875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1880925.875250298</v>
+        <v>1959977.231639046</v>
       </c>
     </row>
     <row r="3">
@@ -14015,28 +14015,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>934.6931933171135</v>
+        <v>987.834187005453</v>
       </c>
       <c r="AB3" t="n">
-        <v>1278.888462849891</v>
+        <v>1351.598314829458</v>
       </c>
       <c r="AC3" t="n">
-        <v>1156.833142886727</v>
+        <v>1222.603668642283</v>
       </c>
       <c r="AD3" t="n">
-        <v>934693.1933171134</v>
+        <v>987834.187005453</v>
       </c>
       <c r="AE3" t="n">
-        <v>1278888.462849891</v>
+        <v>1351598.314829458</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.70355205006325e-06</v>
+        <v>3.563937425328923e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.13333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1156833.142886727</v>
+        <v>1222603.668642283</v>
       </c>
     </row>
     <row r="4">
@@ -14121,28 +14121,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>805.0328418619291</v>
+        <v>858.2590868962893</v>
       </c>
       <c r="AB4" t="n">
-        <v>1101.481449777914</v>
+        <v>1174.30794641013</v>
       </c>
       <c r="AC4" t="n">
-        <v>996.3576061500333</v>
+        <v>1062.233644156301</v>
       </c>
       <c r="AD4" t="n">
-        <v>805032.8418619292</v>
+        <v>858259.0868962894</v>
       </c>
       <c r="AE4" t="n">
-        <v>1101481.449777914</v>
+        <v>1174307.94641013</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.803644018763464e-06</v>
+        <v>3.773336083392996e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.570833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>996357.6061500333</v>
+        <v>1062233.644156301</v>
       </c>
     </row>
     <row r="5">
@@ -14227,28 +14227,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>811.2392428963142</v>
+        <v>864.4654879306744</v>
       </c>
       <c r="AB5" t="n">
-        <v>1109.973321480249</v>
+        <v>1182.799818112465</v>
       </c>
       <c r="AC5" t="n">
-        <v>1004.039025535514</v>
+        <v>1069.915063541782</v>
       </c>
       <c r="AD5" t="n">
-        <v>811239.2428963141</v>
+        <v>864465.4879306743</v>
       </c>
       <c r="AE5" t="n">
-        <v>1109973.321480249</v>
+        <v>1182799.818112465</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.802649727683661e-06</v>
+        <v>3.771255964273154e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.575000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>1004039.025535514</v>
+        <v>1069915.063541782</v>
       </c>
     </row>
   </sheetData>
@@ -25793,28 +25793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1100.182704940067</v>
+        <v>1161.775016157431</v>
       </c>
       <c r="AB2" t="n">
-        <v>1505.318513534399</v>
+        <v>1589.591831002992</v>
       </c>
       <c r="AC2" t="n">
-        <v>1361.653027330478</v>
+        <v>1437.883417658213</v>
       </c>
       <c r="AD2" t="n">
-        <v>1100182.704940067</v>
+        <v>1161775.016157431</v>
       </c>
       <c r="AE2" t="n">
-        <v>1505318.513534399</v>
+        <v>1589591.831002992</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.517108807350573e-06</v>
+        <v>3.297975734359647e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.76979166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1361653.027330478</v>
+        <v>1437883.417658213</v>
       </c>
     </row>
     <row r="3">
@@ -25899,28 +25899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>751.7200060973026</v>
+        <v>803.0469321117727</v>
       </c>
       <c r="AB3" t="n">
-        <v>1028.536475888433</v>
+        <v>1098.764240445595</v>
       </c>
       <c r="AC3" t="n">
-        <v>930.3743981896512</v>
+        <v>993.8997234627635</v>
       </c>
       <c r="AD3" t="n">
-        <v>751720.0060973027</v>
+        <v>803046.9321117727</v>
       </c>
       <c r="AE3" t="n">
-        <v>1028536.475888434</v>
+        <v>1098764.240445595</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.811616483172978e-06</v>
+        <v>3.938192944713306e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.857291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>930374.3981896512</v>
+        <v>993899.7234627635</v>
       </c>
     </row>
     <row r="4">
@@ -26005,28 +26005,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>756.0415076051922</v>
+        <v>807.3684336196621</v>
       </c>
       <c r="AB4" t="n">
-        <v>1034.449344902719</v>
+        <v>1104.67710945988</v>
       </c>
       <c r="AC4" t="n">
-        <v>935.7229512839771</v>
+        <v>999.2482765570893</v>
       </c>
       <c r="AD4" t="n">
-        <v>756041.5076051923</v>
+        <v>807368.4336196622</v>
       </c>
       <c r="AE4" t="n">
-        <v>1034449.344902719</v>
+        <v>1104677.10945988</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.813845004584905e-06</v>
+        <v>3.943037428842873e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.844791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>935722.951283977</v>
+        <v>999248.2765570893</v>
       </c>
     </row>
   </sheetData>
@@ -26302,28 +26302,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>666.9061572566775</v>
+        <v>723.8950804483493</v>
       </c>
       <c r="AB2" t="n">
-        <v>912.4904261817571</v>
+        <v>990.4651850664521</v>
       </c>
       <c r="AC2" t="n">
-        <v>825.4036205953259</v>
+        <v>895.9365779303273</v>
       </c>
       <c r="AD2" t="n">
-        <v>666906.1572566775</v>
+        <v>723895.0804483492</v>
       </c>
       <c r="AE2" t="n">
-        <v>912490.4261817571</v>
+        <v>990465.1850664521</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.745338837062873e-06</v>
+        <v>4.151335484438035e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.98125</v>
       </c>
       <c r="AH2" t="n">
-        <v>825403.6205953259</v>
+        <v>895936.5779303273</v>
       </c>
     </row>
   </sheetData>
@@ -26599,28 +26599,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3244.976804089245</v>
+        <v>3348.686110799628</v>
       </c>
       <c r="AB2" t="n">
-        <v>4439.920421628153</v>
+        <v>4581.820070401007</v>
       </c>
       <c r="AC2" t="n">
-        <v>4016.180648055242</v>
+        <v>4144.537593506619</v>
       </c>
       <c r="AD2" t="n">
-        <v>3244976.804089245</v>
+        <v>3348686.110799628</v>
       </c>
       <c r="AE2" t="n">
-        <v>4439920.421628153</v>
+        <v>4581820.070401007</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.124475278398996e-07</v>
+        <v>1.770675776597153e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.56666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4016180.648055242</v>
+        <v>4144537.593506618</v>
       </c>
     </row>
     <row r="3">
@@ -26705,28 +26705,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1556.756359792733</v>
+        <v>1625.895897599655</v>
       </c>
       <c r="AB3" t="n">
-        <v>2130.022730711874</v>
+        <v>2224.622496560438</v>
       </c>
       <c r="AC3" t="n">
-        <v>1926.736350798411</v>
+        <v>2012.307647765993</v>
       </c>
       <c r="AD3" t="n">
-        <v>1556756.359792733</v>
+        <v>1625895.897599655</v>
       </c>
       <c r="AE3" t="n">
-        <v>2130022.730711874</v>
+        <v>2224622.496560439</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.385135353392037e-06</v>
+        <v>2.687963463900096e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.571875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1926736.350798411</v>
+        <v>2012307.647765993</v>
       </c>
     </row>
     <row r="4">
@@ -26811,28 +26811,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1258.81484229227</v>
+        <v>1316.345872452017</v>
       </c>
       <c r="AB4" t="n">
-        <v>1722.366002215663</v>
+        <v>1801.08249577015</v>
       </c>
       <c r="AC4" t="n">
-        <v>1557.985808320066</v>
+        <v>1629.189710209006</v>
       </c>
       <c r="AD4" t="n">
-        <v>1258814.84229227</v>
+        <v>1316345.872452017</v>
       </c>
       <c r="AE4" t="n">
-        <v>1722366.002215663</v>
+        <v>1801082.49577015</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.555007540699836e-06</v>
+        <v>3.017613726524591e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.30729166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1557985.808320066</v>
+        <v>1629189.710209006</v>
       </c>
     </row>
     <row r="5">
@@ -26917,28 +26917,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1111.860636341304</v>
+        <v>1169.476917847071</v>
       </c>
       <c r="AB5" t="n">
-        <v>1521.296774471543</v>
+        <v>1600.12991267868</v>
       </c>
       <c r="AC5" t="n">
-        <v>1376.106345469412</v>
+        <v>1447.415759609063</v>
       </c>
       <c r="AD5" t="n">
-        <v>1111860.636341304</v>
+        <v>1169476.917847071</v>
       </c>
       <c r="AE5" t="n">
-        <v>1521296.774471543</v>
+        <v>1600129.91267868</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.644867465869903e-06</v>
+        <v>3.191993937912911e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.744791666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1376106.345469411</v>
+        <v>1447415.759609063</v>
       </c>
     </row>
     <row r="6">
@@ -27023,28 +27023,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1022.1603702327</v>
+        <v>1079.606059537875</v>
       </c>
       <c r="AB6" t="n">
-        <v>1398.564913085303</v>
+        <v>1477.164639517592</v>
       </c>
       <c r="AC6" t="n">
-        <v>1265.087840678624</v>
+        <v>1336.186119535625</v>
       </c>
       <c r="AD6" t="n">
-        <v>1022160.3702327</v>
+        <v>1079606.059537875</v>
       </c>
       <c r="AE6" t="n">
-        <v>1398564.913085303</v>
+        <v>1477164.639517592</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.699183482282633e-06</v>
+        <v>3.297398415002084e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.432291666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1265087.840678624</v>
+        <v>1336186.119535625</v>
       </c>
     </row>
     <row r="7">
@@ -27129,28 +27129,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>962.8008709168793</v>
+        <v>1020.246560222055</v>
       </c>
       <c r="AB7" t="n">
-        <v>1317.34662736511</v>
+        <v>1395.9463537974</v>
       </c>
       <c r="AC7" t="n">
-        <v>1191.620914156987</v>
+        <v>1262.719193013988</v>
       </c>
       <c r="AD7" t="n">
-        <v>962800.8709168793</v>
+        <v>1020246.560222055</v>
       </c>
       <c r="AE7" t="n">
-        <v>1317346.62736511</v>
+        <v>1395946.353797399</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.731803866077246e-06</v>
+        <v>3.360700820506063e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.255208333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1191620.914156987</v>
+        <v>1262719.193013988</v>
       </c>
     </row>
     <row r="8">
@@ -27235,28 +27235,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>958.6505045791617</v>
+        <v>1004.743619292327</v>
       </c>
       <c r="AB8" t="n">
-        <v>1311.667913040605</v>
+        <v>1374.734546075862</v>
       </c>
       <c r="AC8" t="n">
-        <v>1186.484168357487</v>
+        <v>1243.531810450435</v>
       </c>
       <c r="AD8" t="n">
-        <v>958650.5045791618</v>
+        <v>1004743.619292327</v>
       </c>
       <c r="AE8" t="n">
-        <v>1311667.913040605</v>
+        <v>1374734.546075862</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.735804479184133e-06</v>
+        <v>3.368464323067872e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.234375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1186484.168357487</v>
+        <v>1243531.810450435</v>
       </c>
     </row>
   </sheetData>
@@ -27532,28 +27532,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5263.151428946951</v>
+        <v>5406.822715687301</v>
       </c>
       <c r="AB2" t="n">
-        <v>7201.275978939253</v>
+        <v>7397.853371787246</v>
       </c>
       <c r="AC2" t="n">
-        <v>6513.996306563334</v>
+        <v>6691.812628936012</v>
       </c>
       <c r="AD2" t="n">
-        <v>5263151.428946951</v>
+        <v>5406822.715687301</v>
       </c>
       <c r="AE2" t="n">
-        <v>7201275.978939253</v>
+        <v>7397853.371787246</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.051900640273583e-07</v>
+        <v>1.323213156281217e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.90208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>6513996.306563334</v>
+        <v>6691812.628936011</v>
       </c>
     </row>
     <row r="3">
@@ -27638,28 +27638,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2023.461625955124</v>
+        <v>2107.284100029423</v>
       </c>
       <c r="AB3" t="n">
-        <v>2768.589465458459</v>
+        <v>2883.279072473482</v>
       </c>
       <c r="AC3" t="n">
-        <v>2504.359172614822</v>
+        <v>2608.102964504206</v>
       </c>
       <c r="AD3" t="n">
-        <v>2023461.625955123</v>
+        <v>2107284.100029423</v>
       </c>
       <c r="AE3" t="n">
-        <v>2768589.465458459</v>
+        <v>2883279.072473482</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.223110352851488e-06</v>
+        <v>2.295034761598772e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.628125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2504359.172614823</v>
+        <v>2608102.964504206</v>
       </c>
     </row>
     <row r="4">
@@ -27744,28 +27744,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1573.002214866217</v>
+        <v>1644.837858236392</v>
       </c>
       <c r="AB4" t="n">
-        <v>2152.251026339957</v>
+        <v>2250.539722763948</v>
       </c>
       <c r="AC4" t="n">
-        <v>1946.843209089358</v>
+        <v>2035.751370275695</v>
       </c>
       <c r="AD4" t="n">
-        <v>1573002.214866217</v>
+        <v>1644837.858236392</v>
       </c>
       <c r="AE4" t="n">
-        <v>2152251.026339957</v>
+        <v>2250539.722763948</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.413197329740276e-06</v>
+        <v>2.651712487913431e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.92916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1946843.209089358</v>
+        <v>2035751.370275695</v>
       </c>
     </row>
     <row r="5">
@@ -27850,28 +27850,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1393.899069972791</v>
+        <v>1453.747972147393</v>
       </c>
       <c r="AB5" t="n">
-        <v>1907.194202023677</v>
+        <v>1989.082110326185</v>
       </c>
       <c r="AC5" t="n">
-        <v>1725.174264146411</v>
+        <v>1799.246905410929</v>
       </c>
       <c r="AD5" t="n">
-        <v>1393899.069972791</v>
+        <v>1453747.972147393</v>
       </c>
       <c r="AE5" t="n">
-        <v>1907194.202023677</v>
+        <v>1989082.110326185</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.51357867400994e-06</v>
+        <v>2.840067262262124e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.20416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1725174.264146411</v>
+        <v>1799246.905410929</v>
       </c>
     </row>
     <row r="6">
@@ -27956,28 +27956,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1275.376353485016</v>
+        <v>1335.310507005638</v>
       </c>
       <c r="AB6" t="n">
-        <v>1745.026192471885</v>
+        <v>1827.030745427042</v>
       </c>
       <c r="AC6" t="n">
-        <v>1578.483341822011</v>
+        <v>1652.661495337241</v>
       </c>
       <c r="AD6" t="n">
-        <v>1275376.353485016</v>
+        <v>1335310.507005638</v>
       </c>
       <c r="AE6" t="n">
-        <v>1745026.192471885</v>
+        <v>1827030.745427042</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.576446753729788e-06</v>
+        <v>2.958032438515958e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.796875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1578483.341822011</v>
+        <v>1652661.495337241</v>
       </c>
     </row>
     <row r="7">
@@ -28062,28 +28062,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1201.537000031297</v>
+        <v>1261.471153551919</v>
       </c>
       <c r="AB7" t="n">
-        <v>1643.99593151414</v>
+        <v>1726.000484469296</v>
       </c>
       <c r="AC7" t="n">
-        <v>1487.095267173211</v>
+        <v>1561.273420688441</v>
       </c>
       <c r="AD7" t="n">
-        <v>1201537.000031297</v>
+        <v>1261471.153551919</v>
       </c>
       <c r="AE7" t="n">
-        <v>1643995.93151414</v>
+        <v>1726000.484469296</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.618556505240253e-06</v>
+        <v>3.037046849025602e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.542708333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1487095.267173211</v>
+        <v>1561273.420688441</v>
       </c>
     </row>
     <row r="8">
@@ -28168,28 +28168,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1138.505852831951</v>
+        <v>1198.269414151981</v>
       </c>
       <c r="AB8" t="n">
-        <v>1557.753935178035</v>
+        <v>1639.525076358345</v>
       </c>
       <c r="AC8" t="n">
-        <v>1409.084085926022</v>
+        <v>1483.051104158601</v>
       </c>
       <c r="AD8" t="n">
-        <v>1138505.852831951</v>
+        <v>1198269.414151981</v>
       </c>
       <c r="AE8" t="n">
-        <v>1557753.935178035</v>
+        <v>1639525.076358345</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.651621556602343e-06</v>
+        <v>3.099089854460991e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.351041666666665</v>
       </c>
       <c r="AH8" t="n">
-        <v>1409084.085926022</v>
+        <v>1483051.104158601</v>
       </c>
     </row>
     <row r="9">
@@ -28274,28 +28274,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1087.185392957384</v>
+        <v>1135.132805282433</v>
       </c>
       <c r="AB9" t="n">
-        <v>1487.535017878756</v>
+        <v>1553.138782712429</v>
       </c>
       <c r="AC9" t="n">
-        <v>1345.566763540916</v>
+        <v>1404.909397134327</v>
       </c>
       <c r="AD9" t="n">
-        <v>1087185.392957384</v>
+        <v>1135132.805282433</v>
       </c>
       <c r="AE9" t="n">
-        <v>1487535.017878755</v>
+        <v>1553138.78271243</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.67356607499512e-06</v>
+        <v>3.140266378247708e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.229166666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1345566.763540916</v>
+        <v>1404909.397134327</v>
       </c>
     </row>
     <row r="10">
@@ -28380,28 +28380,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1057.388712284512</v>
+        <v>1105.336124609561</v>
       </c>
       <c r="AB10" t="n">
-        <v>1446.765884845356</v>
+        <v>1512.369649679031</v>
       </c>
       <c r="AC10" t="n">
-        <v>1308.688579344387</v>
+        <v>1368.031212937798</v>
       </c>
       <c r="AD10" t="n">
-        <v>1057388.712284512</v>
+        <v>1105336.124609561</v>
       </c>
       <c r="AE10" t="n">
-        <v>1446765.884845356</v>
+        <v>1512369.649679031</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.686910714558296e-06</v>
+        <v>3.165306156226115e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.15625</v>
       </c>
       <c r="AH10" t="n">
-        <v>1308688.579344387</v>
+        <v>1368031.212937798</v>
       </c>
     </row>
     <row r="11">
@@ -28486,28 +28486,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1058.102878485373</v>
+        <v>1106.050290810422</v>
       </c>
       <c r="AB11" t="n">
-        <v>1447.743038548163</v>
+        <v>1513.346803381838</v>
       </c>
       <c r="AC11" t="n">
-        <v>1309.572474869242</v>
+        <v>1368.915108462653</v>
       </c>
       <c r="AD11" t="n">
-        <v>1058102.878485373</v>
+        <v>1106050.290810422</v>
       </c>
       <c r="AE11" t="n">
-        <v>1447743.038548163</v>
+        <v>1513346.803381838</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.688393452287538e-06</v>
+        <v>3.168088353779272e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.147916666666665</v>
       </c>
       <c r="AH11" t="n">
-        <v>1309572.474869242</v>
+        <v>1368915.108462653</v>
       </c>
     </row>
   </sheetData>
@@ -28783,28 +28783,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>653.084094501656</v>
+        <v>707.9600009350357</v>
       </c>
       <c r="AB2" t="n">
-        <v>893.5784701339643</v>
+        <v>968.6621062702441</v>
       </c>
       <c r="AC2" t="n">
-        <v>808.2965950896377</v>
+        <v>876.2143543736161</v>
       </c>
       <c r="AD2" t="n">
-        <v>653084.0945016559</v>
+        <v>707960.0009350358</v>
       </c>
       <c r="AE2" t="n">
-        <v>893578.4701339643</v>
+        <v>968662.1062702441</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.62382848422645e-06</v>
+        <v>4.061071807467178e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.221875</v>
       </c>
       <c r="AH2" t="n">
-        <v>808296.5950896377</v>
+        <v>876214.354373616</v>
       </c>
     </row>
   </sheetData>
@@ -29080,28 +29080,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1740.424495233951</v>
+        <v>1816.122124054352</v>
       </c>
       <c r="AB2" t="n">
-        <v>2381.325576488813</v>
+        <v>2484.898411784574</v>
       </c>
       <c r="AC2" t="n">
-        <v>2154.055205680157</v>
+        <v>2247.74319494068</v>
       </c>
       <c r="AD2" t="n">
-        <v>1740424.495233951</v>
+        <v>1816122.124054352</v>
       </c>
       <c r="AE2" t="n">
-        <v>2381325.576488812</v>
+        <v>2484898.411784574</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.243364255846977e-06</v>
+        <v>2.560439444482327e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.68125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2154055.205680157</v>
+        <v>2247743.19494068</v>
       </c>
     </row>
     <row r="3">
@@ -29186,28 +29186,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1036.394806418541</v>
+        <v>1090.379289944236</v>
       </c>
       <c r="AB3" t="n">
-        <v>1418.041096653775</v>
+        <v>1491.905048640956</v>
       </c>
       <c r="AC3" t="n">
-        <v>1282.705244622317</v>
+        <v>1349.519724700549</v>
       </c>
       <c r="AD3" t="n">
-        <v>1036394.806418541</v>
+        <v>1090379.289944235</v>
       </c>
       <c r="AE3" t="n">
-        <v>1418041.096653775</v>
+        <v>1491905.048640956</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.640345935117269e-06</v>
+        <v>3.377937249780007e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.36979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1282705.244622317</v>
+        <v>1349519.724700549</v>
       </c>
     </row>
     <row r="4">
@@ -29292,28 +29292,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>852.7049787991983</v>
+        <v>906.7747136709129</v>
       </c>
       <c r="AB4" t="n">
-        <v>1166.708570681734</v>
+        <v>1240.689167321564</v>
       </c>
       <c r="AC4" t="n">
-        <v>1055.359542181632</v>
+        <v>1122.279534510577</v>
       </c>
       <c r="AD4" t="n">
-        <v>852704.9787991983</v>
+        <v>906774.7136709129</v>
       </c>
       <c r="AE4" t="n">
-        <v>1166708.570681734</v>
+        <v>1240689.167321564</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.77702782139832e-06</v>
+        <v>3.6594039972231e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.572916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1055359.542181632</v>
+        <v>1122279.534510577</v>
       </c>
     </row>
     <row r="5">
@@ -29398,28 +29398,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>832.7682796481993</v>
+        <v>886.6674223193215</v>
       </c>
       <c r="AB5" t="n">
-        <v>1139.430299358246</v>
+        <v>1213.177484223229</v>
       </c>
       <c r="AC5" t="n">
-        <v>1030.684670787964</v>
+        <v>1097.393527834257</v>
       </c>
       <c r="AD5" t="n">
-        <v>832768.2796481992</v>
+        <v>886667.4223193215</v>
       </c>
       <c r="AE5" t="n">
-        <v>1139430.299358246</v>
+        <v>1213177.484223229</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.794990793311003e-06</v>
+        <v>3.696394848141547e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.477083333333335</v>
       </c>
       <c r="AH5" t="n">
-        <v>1030684.670787964</v>
+        <v>1097393.527834257</v>
       </c>
     </row>
     <row r="6">
@@ -29504,28 +29504,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>838.8646220131488</v>
+        <v>892.7637646842713</v>
       </c>
       <c r="AB6" t="n">
-        <v>1147.771583933614</v>
+        <v>1221.518768798597</v>
       </c>
       <c r="AC6" t="n">
-        <v>1038.229874870525</v>
+        <v>1104.938731916818</v>
       </c>
       <c r="AD6" t="n">
-        <v>838864.6220131489</v>
+        <v>892763.7646842713</v>
       </c>
       <c r="AE6" t="n">
-        <v>1147771.583933614</v>
+        <v>1221518.768798597</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.794664193821681e-06</v>
+        <v>3.695722287215757e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.478125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1038229.874870525</v>
+        <v>1104938.731916818</v>
       </c>
     </row>
   </sheetData>
@@ -29801,28 +29801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2544.629490578467</v>
+        <v>2645.810574828286</v>
       </c>
       <c r="AB2" t="n">
-        <v>3481.674330139789</v>
+        <v>3620.114753404798</v>
       </c>
       <c r="AC2" t="n">
-        <v>3149.388218631729</v>
+        <v>3274.616082202675</v>
       </c>
       <c r="AD2" t="n">
-        <v>2544629.490578467</v>
+        <v>2645810.574828286</v>
       </c>
       <c r="AE2" t="n">
-        <v>3481674.330139789</v>
+        <v>3620114.753404798</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.033110044497118e-06</v>
+        <v>2.046781205880939e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.853125</v>
       </c>
       <c r="AH2" t="n">
-        <v>3149388.218631729</v>
+        <v>3274616.082202674</v>
       </c>
     </row>
     <row r="3">
@@ -29907,28 +29907,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1349.131464972603</v>
+        <v>1405.438091125022</v>
       </c>
       <c r="AB3" t="n">
-        <v>1845.941189855076</v>
+        <v>1922.982399829844</v>
       </c>
       <c r="AC3" t="n">
-        <v>1669.767153490039</v>
+        <v>1739.455658512832</v>
       </c>
       <c r="AD3" t="n">
-        <v>1349131.464972603</v>
+        <v>1405438.091125022</v>
       </c>
       <c r="AE3" t="n">
-        <v>1845941.189855076</v>
+        <v>1922982.399829844</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.478050148884097e-06</v>
+        <v>2.928289471387416e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.08020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1669767.153490039</v>
+        <v>1739455.658512832</v>
       </c>
     </row>
     <row r="4">
@@ -30013,28 +30013,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1104.057428238243</v>
+        <v>1160.27871353609</v>
       </c>
       <c r="AB4" t="n">
-        <v>1510.62008089169</v>
+        <v>1587.54452374426</v>
       </c>
       <c r="AC4" t="n">
-        <v>1366.448620539986</v>
+        <v>1436.03150253084</v>
       </c>
       <c r="AD4" t="n">
-        <v>1104057.428238243</v>
+        <v>1160278.71353609</v>
       </c>
       <c r="AE4" t="n">
-        <v>1510620.08089169</v>
+        <v>1587544.52374426</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.636216136521306e-06</v>
+        <v>3.241645413118693e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.009375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1366448.620539986</v>
+        <v>1436031.50253084</v>
       </c>
     </row>
     <row r="5">
@@ -30119,28 +30119,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>970.7070075467567</v>
+        <v>1027.013544190625</v>
       </c>
       <c r="AB5" t="n">
-        <v>1328.164152296239</v>
+        <v>1405.205239801459</v>
       </c>
       <c r="AC5" t="n">
-        <v>1201.406029691181</v>
+        <v>1271.094423932748</v>
       </c>
       <c r="AD5" t="n">
-        <v>970707.0075467566</v>
+        <v>1027013.544190624</v>
       </c>
       <c r="AE5" t="n">
-        <v>1328164.152296239</v>
+        <v>1405205.239801459</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.719229696633082e-06</v>
+        <v>3.406110559474672e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.526041666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1201406.029691181</v>
+        <v>1271094.423932748</v>
       </c>
     </row>
     <row r="6">
@@ -30225,28 +30225,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>911.3543221535414</v>
+        <v>967.490266596817</v>
       </c>
       <c r="AB6" t="n">
-        <v>1246.955189685564</v>
+        <v>1323.762865415937</v>
       </c>
       <c r="AC6" t="n">
-        <v>1127.947536494574</v>
+        <v>1197.42479545349</v>
       </c>
       <c r="AD6" t="n">
-        <v>911354.3221535414</v>
+        <v>967490.2665968171</v>
       </c>
       <c r="AE6" t="n">
-        <v>1246955.189685564</v>
+        <v>1323762.865415937</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.756491465092345e-06</v>
+        <v>3.479932983123094e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.323958333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1127947.536494574</v>
+        <v>1197424.79545349</v>
       </c>
     </row>
     <row r="7">
@@ -30331,28 +30331,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>912.1898597531914</v>
+        <v>968.3258041964669</v>
       </c>
       <c r="AB7" t="n">
-        <v>1248.098409090723</v>
+        <v>1324.906084821095</v>
       </c>
       <c r="AC7" t="n">
-        <v>1128.981648644222</v>
+        <v>1198.458907603138</v>
       </c>
       <c r="AD7" t="n">
-        <v>912189.8597531914</v>
+        <v>968325.8041964669</v>
       </c>
       <c r="AE7" t="n">
-        <v>1248098.409090723</v>
+        <v>1324906.084821095</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.759950363430335e-06</v>
+        <v>3.486785697554593e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.30625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1128981.648644222</v>
+        <v>1198458.907603138</v>
       </c>
     </row>
   </sheetData>
